--- a/costing.xlsx
+++ b/costing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tayaw\Desktop\Projects\mayhem-creations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A6A63A8D-4A41-4178-AB23-75706FD9A7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82DB96-E2C7-454F-84E7-69B0A99286AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="16200" windowHeight="9307" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -621,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="B4">
         <f>ROUND((Input!B4 / 1000000) * Material!B4 * Material!E4, 2)</f>
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -680,7 +680,7 @@
       </c>
       <c r="B5">
         <f>ROUND((Input!B4 / Material!D5) * (Material!B5 / 144) * Material!E5, 2)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -707,7 +707,7 @@
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>0.43000000000000005</v>
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/costing.xlsx
+++ b/costing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tayaw\Desktop\Projects\mayhem-creations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82DB96-E2C7-454F-84E7-69B0A99286AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9379F9-6548-4992-BF1D-995B3FB549FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="16200" windowHeight="9307" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -456,9 +456,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -526,7 +526,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -543,7 +543,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -586,13 +586,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -600,28 +600,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4">
-        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -633,13 +630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -647,67 +644,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
         <f>ROUND((Input!B2 * Input!B3 / (Material!C2 * Material!D2)) * Material!B2 * Material!E2, 2)</f>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
         <f>ROUND((Input!B2 * Input!B3 / (Material!C3 * Material!D3)) * Material!B3 * Material!E3, 2)</f>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
         <f>ROUND((Input!B4 / 1000000) * Material!B4 * Material!E4, 2)</f>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
         <f>ROUND((Input!B4 / Material!D5) * (Material!B5 / 144) * Material!E5, 2)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
         <f>ROUND((Input!B2 * Input!B3 / (Material!C6 * Material!D6)) * Material!B6 * Material!E6, 2)</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
         <f>ROUND((Input!B2 * Input!B3 / (Material!C7 * Material!D7)) * Material!B7 * Material!E7, 2)</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>1.27</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
